--- a/data-raw/sample summary_IGC-LZ-20342.xlsx
+++ b/data-raw/sample summary_IGC-LZ-20342.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isi-dcnl\user_data\ykuo\Seq\220511_IGC-LZ-20342\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domeally/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53254DBE-A16F-40EF-B9DE-3B64243FA365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAC42E-0369-ED4C-991E-D5889E561F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>48093_45_358</t>
   </si>
   <si>
-    <t>48094_46_358_2</t>
-  </si>
-  <si>
     <t>48095_47_491</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>human</t>
+  </si>
+  <si>
+    <t>48094_46_358-2</t>
   </si>
 </sst>
 </file>
@@ -1592,27 +1592,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="34" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="66.85546875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="21.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="66.83203125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1664,43 +1664,43 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4054</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="3">
-        <v>4054</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1708,43 +1708,43 @@
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="3">
         <v>4054</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,43 +1752,43 @@
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="3">
         <v>4054</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1796,43 +1796,43 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="3">
         <v>4054</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1840,43 +1840,43 @@
         <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="3">
         <v>4054</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1884,43 +1884,43 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="3">
         <v>4054</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1928,43 +1928,43 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="3">
         <v>4054</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1972,43 +1972,43 @@
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L9" s="3">
         <v>4054</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2016,43 +2016,43 @@
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L10" s="3">
         <v>4054</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2060,43 +2060,43 @@
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L11" s="3">
         <v>4054</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,43 +2104,43 @@
         <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" s="3">
         <v>4054</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,43 +2148,43 @@
         <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="3">
         <v>4054</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2192,43 +2192,43 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="3">
         <v>4054</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2236,43 +2236,43 @@
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" s="3">
         <v>4054</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2280,43 +2280,43 @@
         <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="3">
         <v>4054</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2324,43 +2324,43 @@
         <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="3">
         <v>4054</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,43 +2368,43 @@
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L18" s="3">
         <v>4054</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2412,43 +2412,43 @@
         <v>32</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="3">
         <v>4054</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2456,43 +2456,43 @@
         <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" s="3">
         <v>4054</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,43 +2500,43 @@
         <v>34</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L21" s="3">
         <v>4054</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2544,43 +2544,43 @@
         <v>35</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L22" s="3">
         <v>4054</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2588,43 +2588,43 @@
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23" s="3">
         <v>4054</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2632,43 +2632,43 @@
         <v>37</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L24" s="3">
         <v>4054</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2676,43 +2676,43 @@
         <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L25" s="3">
         <v>4054</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2720,43 +2720,43 @@
         <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L26" s="3">
         <v>4054</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,43 +2764,43 @@
         <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" s="3">
         <v>4054</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2808,43 +2808,43 @@
         <v>41</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L28" s="3">
         <v>4054</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2852,43 +2852,43 @@
         <v>42</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L29" s="3">
         <v>4054</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,43 +2896,43 @@
         <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L30" s="3">
         <v>4054</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2940,43 +2940,43 @@
         <v>44</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31" s="3">
         <v>4054</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2984,43 +2984,43 @@
         <v>45</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L32" s="3">
         <v>4054</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3028,43 +3028,43 @@
         <v>46</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L33" s="3">
         <v>4054</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3072,43 +3072,43 @@
         <v>47</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L34" s="3">
         <v>4054</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3116,43 +3116,43 @@
         <v>48</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L35" s="3">
         <v>4054</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3160,43 +3160,43 @@
         <v>49</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" s="3">
         <v>4054</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3204,43 +3204,43 @@
         <v>50</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L37" s="3">
         <v>4054</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3248,43 +3248,43 @@
         <v>51</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L38" s="3">
         <v>4054</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3292,43 +3292,43 @@
         <v>52</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L39" s="3">
         <v>4054</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3336,43 +3336,43 @@
         <v>53</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L40" s="3">
         <v>4054</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3380,43 +3380,43 @@
         <v>54</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L41" s="3">
         <v>4054</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3424,43 +3424,43 @@
         <v>55</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L42" s="3">
         <v>4054</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3468,43 +3468,43 @@
         <v>56</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L43" s="3">
         <v>4054</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3512,43 +3512,43 @@
         <v>57</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L44" s="3">
         <v>4054</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,43 +3556,43 @@
         <v>58</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L45" s="3">
         <v>4054</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3600,351 +3600,351 @@
         <v>59</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L46" s="3">
         <v>4054</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L47" s="3">
         <v>4054</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L48" s="3">
         <v>4054</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L49" s="3">
         <v>4054</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L50" s="3">
         <v>4054</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L51" s="3">
         <v>4054</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L52" s="3">
         <v>4054</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L53" s="3">
         <v>4054</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
